--- a/TestFiles/sample2/words/word_15.xlsx
+++ b/TestFiles/sample2/words/word_15.xlsx
@@ -385,10 +385,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.5217854499999994</v>
+        <v>0.5217854499999959</v>
       </c>
       <c r="B2">
-        <v>0.6182592499999977</v>
+        <v>0.6182592499999942</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -396,10 +396,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.7419692500000004</v>
+        <v>0.7419692499999968</v>
       </c>
       <c r="B3">
-        <v>0.8418037500000004</v>
+        <v>0.8418037499999969</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -407,10 +407,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.970369349999995</v>
+        <v>0.9703693499999915</v>
       </c>
       <c r="B4">
-        <v>1.066088849999996</v>
+        <v>1.066088849999993</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -418,10 +418,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1.20613535</v>
+        <v>1.206135349999997</v>
       </c>
       <c r="B5">
-        <v>1.301961549999998</v>
+        <v>1.301961549999994</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
